--- a/catalogueXlsx/Prakrit.xlsx
+++ b/catalogueXlsx/Prakrit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Accession No.</t>
   </si>
@@ -39,22 +39,25 @@
     <t>P0002</t>
   </si>
   <si>
-    <t>छन्दःशास्त्र</t>
-  </si>
-  <si>
     <t>Incomplete. Folio 1 is missing. A work on prosody in Prakrit.</t>
   </si>
   <si>
     <t>Prosody</t>
   </si>
   <si>
-    <t>वैराग्यशतक (?)</t>
-  </si>
-  <si>
-    <t>Incomplete. An अर्धमागधी work with गुजराती narratives. First few folios missing.</t>
-  </si>
-  <si>
     <t>Kavya</t>
+  </si>
+  <si>
+    <t>उपदेशमाला बालावबोधसहित</t>
+  </si>
+  <si>
+    <t>कर्ता - धर्मदासगणि, टीकाकार - अज्ञात</t>
+  </si>
+  <si>
+    <t>प्राकृतपिङ्गल</t>
+  </si>
+  <si>
+    <t>Incomplete. A work in प्राकृत with मारुगुर्जर narratives. First few folios missing.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -421,13 +424,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,11 +440,14 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
